--- a/resource/72player.xlsx
+++ b/resource/72player.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9e5a40ed6fad237/documents/2026/01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azusa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FAE13C-4384-4198-B888-04B387E1C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F22B9-A6C9-4D90-9D97-D09AF7E0C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1890" windowWidth="13560" windowHeight="18645" xr2:uid="{F511A7F0-B4E0-4C3F-8A2B-87A025328FDC}"/>
+    <workbookView xWindow="4920" yWindow="1845" windowWidth="18120" windowHeight="18645" activeTab="1" xr2:uid="{F511A7F0-B4E0-4C3F-8A2B-87A025328FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="試合方法および参加費用" sheetId="6" r:id="rId1"/>
@@ -1215,29 +1215,6 @@
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>M：マスターズ・・・試合自体を楽しむ</t>
-    <rPh sb="10" eb="12">
-      <t>シアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タノ</t>
-    </rPh>
-    <phoneticPr fontId="20"/>
-  </si>
-  <si>
-    <t>MT：マスターズトップリーグ・・・勝負を楽しむ</t>
-    <rPh sb="17" eb="19">
-      <t>ショウブ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タノ</t>
-    </rPh>
-    <phoneticPr fontId="20"/>
-  </si>
-  <si>
     <t>※リーグ（MTまたはM）の選択は、原則チームで決める。何か問題があれば協会と検討する。</t>
     <rPh sb="13" eb="15">
       <t>センタク</t>
@@ -1472,6 +1449,14 @@
       <t>スイセン</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MT：マスターズトップリーグ</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>M：マスターズ</t>
+    <phoneticPr fontId="20"/>
   </si>
 </sst>
 </file>
@@ -2919,78 +2904,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3026,29 +2939,77 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3065,6 +3026,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3133,10 +3118,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3458,7 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBD6069-9176-414A-8AB2-B414E0A6A038}">
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3800,7 +3781,9 @@
   </sheetPr>
   <dimension ref="A2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3821,47 +3804,47 @@
   <sheetData>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="114" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" s="68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" s="68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="68" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="70"/>
@@ -4205,7 +4188,7 @@
     </row>
     <row r="27" spans="1:12" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="108" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B27" s="108"/>
       <c r="C27" s="109"/>
@@ -4252,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="77" t="s">
         <v>107</v>
@@ -4284,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="85" t="s">
         <v>110</v>
@@ -4314,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31" s="85" t="s">
         <v>113</v>
@@ -4346,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" s="85" t="s">
         <v>115</v>
@@ -4380,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" s="85" t="s">
         <v>119</v>
@@ -4410,7 +4393,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" s="85" t="s">
         <v>120</v>
@@ -4440,7 +4423,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="85" t="s">
         <v>124</v>
@@ -4472,7 +4455,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="85" t="s">
         <v>126</v>
@@ -4536,12 +4519,12 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B40" s="68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B41" s="68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4590,14 +4573,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
@@ -4657,25 +4640,25 @@
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
-      <c r="F6" s="151" t="s">
+      <c r="F6" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="H6" s="152"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="128"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="155"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="131"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
@@ -4688,22 +4671,22 @@
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="54"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="156"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="125"/>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
@@ -4714,14 +4697,14 @@
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144" t="s">
+      <c r="C11" s="134"/>
+      <c r="D11" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="145"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
@@ -4736,10 +4719,10 @@
       <c r="A12" s="39">
         <v>30</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="147"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
@@ -5059,40 +5042,40 @@
       <c r="H43" s="141"/>
     </row>
     <row r="44" spans="1:8" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="130"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="132" t="s">
+      <c r="B44" s="148"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="130"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="132" t="s">
+      <c r="E44" s="148"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="133"/>
+      <c r="H44" s="151"/>
     </row>
     <row r="45" spans="1:8" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="138"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="156"/>
     </row>
     <row r="46" spans="1:8" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="124"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="128"/>
+      <c r="A46" s="142"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="146"/>
     </row>
     <row r="47" spans="1:8" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26"/>
@@ -5132,78 +5115,6 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:H43"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="G46:H46"/>
@@ -5213,6 +5124,78 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -5251,14 +5234,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
@@ -5328,28 +5311,28 @@
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
-      <c r="F6" s="151" t="s">
+      <c r="F6" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="166"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="167"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="159"/>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5363,25 +5346,25 @@
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="54"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="168"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="160"/>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="165"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5393,14 +5376,14 @@
       <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161" t="s">
+      <c r="C11" s="164"/>
+      <c r="D11" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="162"/>
+      <c r="E11" s="166"/>
       <c r="F11" s="34" t="s">
         <v>14</v>
       </c>
@@ -5419,15 +5402,15 @@
       <c r="A12" s="11">
         <v>30</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="147"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="115"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="163" t="s">
+      <c r="J12" s="161" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5443,7 +5426,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="116"/>
       <c r="I13" s="117"/>
-      <c r="J13" s="164"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:15" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
@@ -5455,7 +5438,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="116"/>
       <c r="I14" s="117"/>
-      <c r="J14" s="164"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:15" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
@@ -5467,7 +5450,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="116"/>
       <c r="I15" s="117"/>
-      <c r="J15" s="164"/>
+      <c r="J15" s="162"/>
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5480,7 +5463,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="116"/>
       <c r="I16" s="117"/>
-      <c r="J16" s="164"/>
+      <c r="J16" s="162"/>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
@@ -5492,7 +5475,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="116"/>
       <c r="I17" s="117"/>
-      <c r="J17" s="164"/>
+      <c r="J17" s="162"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
@@ -5504,7 +5487,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="116"/>
       <c r="I18" s="117"/>
-      <c r="J18" s="164"/>
+      <c r="J18" s="162"/>
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
@@ -5516,7 +5499,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="116"/>
       <c r="I19" s="117"/>
-      <c r="J19" s="164"/>
+      <c r="J19" s="162"/>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
@@ -5528,7 +5511,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="116"/>
       <c r="I20" s="117"/>
-      <c r="J20" s="164"/>
+      <c r="J20" s="162"/>
     </row>
     <row r="21" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
@@ -5540,7 +5523,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="116"/>
       <c r="I21" s="117"/>
-      <c r="J21" s="164"/>
+      <c r="J21" s="162"/>
     </row>
     <row r="22" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
@@ -5552,7 +5535,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="116"/>
       <c r="I22" s="117"/>
-      <c r="J22" s="164"/>
+      <c r="J22" s="162"/>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16"/>
@@ -5564,7 +5547,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="116"/>
       <c r="I23" s="117"/>
-      <c r="J23" s="164"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
@@ -5576,7 +5559,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="116"/>
       <c r="I24" s="117"/>
-      <c r="J24" s="164"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
@@ -5588,7 +5571,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="116"/>
       <c r="I25" s="117"/>
-      <c r="J25" s="164"/>
+      <c r="J25" s="162"/>
     </row>
     <row r="26" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
@@ -5600,7 +5583,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="116"/>
       <c r="I26" s="117"/>
-      <c r="J26" s="164"/>
+      <c r="J26" s="162"/>
     </row>
     <row r="27" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
@@ -5612,7 +5595,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="116"/>
       <c r="I27" s="117"/>
-      <c r="J27" s="164"/>
+      <c r="J27" s="162"/>
     </row>
     <row r="28" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
@@ -5624,7 +5607,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="116"/>
       <c r="I28" s="117"/>
-      <c r="J28" s="164"/>
+      <c r="J28" s="162"/>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
@@ -5636,7 +5619,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="116"/>
       <c r="I29" s="117"/>
-      <c r="J29" s="164"/>
+      <c r="J29" s="162"/>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
@@ -5648,7 +5631,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="116"/>
       <c r="I30" s="117"/>
-      <c r="J30" s="164"/>
+      <c r="J30" s="162"/>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
@@ -5660,7 +5643,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="116"/>
       <c r="I31" s="117"/>
-      <c r="J31" s="164"/>
+      <c r="J31" s="162"/>
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
@@ -5672,7 +5655,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="116"/>
       <c r="I32" s="117"/>
-      <c r="J32" s="164"/>
+      <c r="J32" s="162"/>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
@@ -5684,7 +5667,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="116"/>
       <c r="I33" s="117"/>
-      <c r="J33" s="164"/>
+      <c r="J33" s="162"/>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
@@ -5696,7 +5679,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="116"/>
       <c r="I34" s="117"/>
-      <c r="J34" s="164"/>
+      <c r="J34" s="162"/>
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
@@ -5708,7 +5691,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="116"/>
       <c r="I35" s="117"/>
-      <c r="J35" s="164"/>
+      <c r="J35" s="162"/>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
@@ -5720,7 +5703,7 @@
       <c r="G36" s="18"/>
       <c r="H36" s="116"/>
       <c r="I36" s="117"/>
-      <c r="J36" s="164"/>
+      <c r="J36" s="162"/>
     </row>
     <row r="37" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
@@ -5732,7 +5715,7 @@
       <c r="G37" s="18"/>
       <c r="H37" s="116"/>
       <c r="I37" s="117"/>
-      <c r="J37" s="164"/>
+      <c r="J37" s="162"/>
     </row>
     <row r="38" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
@@ -5744,7 +5727,7 @@
       <c r="G38" s="18"/>
       <c r="H38" s="116"/>
       <c r="I38" s="117"/>
-      <c r="J38" s="164"/>
+      <c r="J38" s="162"/>
     </row>
     <row r="39" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
@@ -5756,7 +5739,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="116"/>
       <c r="I39" s="117"/>
-      <c r="J39" s="164"/>
+      <c r="J39" s="162"/>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
@@ -5768,7 +5751,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="116"/>
       <c r="I40" s="117"/>
-      <c r="J40" s="164"/>
+      <c r="J40" s="162"/>
     </row>
     <row r="41" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
@@ -5780,19 +5763,19 @@
       <c r="G41" s="18"/>
       <c r="H41" s="116"/>
       <c r="I41" s="117"/>
-      <c r="J41" s="164"/>
+      <c r="J41" s="162"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="158"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="168"/>
       <c r="F42" s="38"/>
       <c r="G42" s="24"/>
       <c r="H42" s="40"/>
       <c r="I42" s="118"/>
-      <c r="J42" s="164"/>
+      <c r="J42" s="162"/>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="141" t="s">
@@ -5806,40 +5789,40 @@
       <c r="H43" s="141"/>
     </row>
     <row r="44" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="130"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="132" t="s">
+      <c r="B44" s="148"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="130"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="132" t="s">
+      <c r="E44" s="148"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="133"/>
+      <c r="H44" s="151"/>
     </row>
     <row r="45" spans="1:10" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="138"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="156"/>
     </row>
     <row r="46" spans="1:10" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="124"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="128"/>
+      <c r="A46" s="142"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="146"/>
     </row>
     <row r="47" spans="1:10" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26"/>
@@ -5881,13 +5864,65 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="J12:J42"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -5904,65 +5939,13 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
